--- a/WIP/files/Q13A.xlsx
+++ b/WIP/files/Q13A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89290C5C-C507-43F5-9E87-834A88409F18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796C1096-982E-488F-967C-562CC1352153}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,38 +336,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WIP/files/Q13A.xlsx
+++ b/WIP/files/Q13A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796C1096-982E-488F-967C-562CC1352153}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49C3A00-1217-43A3-B2E7-118E2C1DFD66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,9 +338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/WIP/files/Q13A.xlsx
+++ b/WIP/files/Q13A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49C3A00-1217-43A3-B2E7-118E2C1DFD66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF9721D-222A-4B98-8BBF-BC22D73ACD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,245 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+  <si>
+    <t>Glietho</t>
+  </si>
+  <si>
+    <t>Tusnoyce</t>
+  </si>
+  <si>
+    <t>Uthesh</t>
+  </si>
+  <si>
+    <t>Scuis Stal</t>
+  </si>
+  <si>
+    <t>Gloux Clar</t>
+  </si>
+  <si>
+    <t>Aprana</t>
+  </si>
+  <si>
+    <t>Xofroirhiel</t>
+  </si>
+  <si>
+    <t>Stautho</t>
+  </si>
+  <si>
+    <t>Yestines</t>
+  </si>
+  <si>
+    <t>Udros</t>
+  </si>
+  <si>
+    <t>Troilia</t>
+  </si>
+  <si>
+    <t>Osten</t>
+  </si>
+  <si>
+    <t>Iaproece</t>
+  </si>
+  <si>
+    <t>Smuera</t>
+  </si>
+  <si>
+    <t>Qethana</t>
+  </si>
+  <si>
+    <t>Afria</t>
+  </si>
+  <si>
+    <t>Shoyd Sneau</t>
+  </si>
+  <si>
+    <t>Bref Trea</t>
+  </si>
+  <si>
+    <t>Labruynga</t>
+  </si>
+  <si>
+    <t>Jethye</t>
+  </si>
+  <si>
+    <t>Abdiel</t>
+  </si>
+  <si>
+    <t>Abida</t>
+  </si>
+  <si>
+    <t>Abiram</t>
+  </si>
+  <si>
+    <t>Abram</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Ananiah</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Azaliah</t>
+  </si>
+  <si>
+    <t>Berachiah</t>
+  </si>
+  <si>
+    <t>Berenice</t>
+  </si>
+  <si>
+    <t>Casiphia</t>
+  </si>
+  <si>
+    <t>Charis</t>
+  </si>
+  <si>
+    <t>Corban</t>
+  </si>
+  <si>
+    <t>Cyrus</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Demas</t>
+  </si>
+  <si>
+    <t>Eirene</t>
+  </si>
+  <si>
+    <t>Eliada</t>
+  </si>
+  <si>
+    <t>Euodia</t>
+  </si>
+  <si>
+    <t>Gethsemane</t>
+  </si>
+  <si>
+    <t>Hosannah</t>
+  </si>
+  <si>
+    <t>Imlah</t>
+  </si>
+  <si>
+    <t>Jalon</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Jedidah</t>
+  </si>
+  <si>
+    <t>Jeshiah</t>
+  </si>
+  <si>
+    <t>Joachim</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Justus</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Kemuel</t>
+  </si>
+  <si>
+    <t>Kir</t>
+  </si>
+  <si>
+    <t>Korah</t>
+  </si>
+  <si>
+    <t>Lael</t>
+  </si>
+  <si>
+    <t>Lucetta</t>
+  </si>
+  <si>
+    <t>Malchus</t>
+  </si>
+  <si>
+    <t>Mareshah</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Mattathias</t>
+  </si>
+  <si>
+    <t>Micaiah</t>
+  </si>
+  <si>
+    <t>Naamah</t>
+  </si>
+  <si>
+    <t>Naham</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>Rebekah</t>
+  </si>
+  <si>
+    <t>Sakia</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Shachia</t>
+  </si>
+  <si>
+    <t>Sherah</t>
+  </si>
+  <si>
+    <t>Susanna</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Zachariah</t>
+  </si>
+  <si>
+    <t>Zedekiah</t>
+  </si>
+  <si>
+    <t>Zipporah</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +574,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>